--- a/未命名.xlsx
+++ b/未命名.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18980" windowHeight="14760"/>
+    <workbookView windowHeight="15080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="361">
   <si>
     <t>时间</t>
   </si>
@@ -47,492 +48,645 @@
     <t>JDX038014670031-1-1-</t>
   </si>
   <si>
+    <t>Intel-12490F盒装</t>
+  </si>
+  <si>
+    <t>UTBXH1ODB7K0</t>
+  </si>
+  <si>
+    <t>已入系统</t>
+  </si>
+  <si>
+    <t>Intel-13400F盒装</t>
+  </si>
+  <si>
+    <t>SBM0KC2288893DK</t>
+  </si>
+  <si>
+    <t>JDX038014721385-1-1-</t>
+  </si>
+  <si>
+    <t>Intel-13490F盒装</t>
+  </si>
+  <si>
+    <t>3W4R6URLETKW</t>
+  </si>
+  <si>
+    <t>Intel-14490F盒装</t>
+  </si>
+  <si>
+    <t>T2M0KC168177X99</t>
+  </si>
+  <si>
+    <t>JDX038014661014-1-1-</t>
+  </si>
+  <si>
+    <t>Intel-14400F盒装</t>
+  </si>
+  <si>
+    <t>45C8ZX46X08W</t>
+  </si>
+  <si>
+    <t>Intel-12600KF盒装</t>
+  </si>
+  <si>
+    <t>T2M0KC1681748XG</t>
+  </si>
+  <si>
+    <t>JDX038014655441-1-1-</t>
+  </si>
+  <si>
+    <t>Intel-14600KF盒装</t>
+  </si>
+  <si>
+    <t>LSS7P3VWIG3K</t>
+  </si>
+  <si>
+    <t>Intel-14600K盒装</t>
+  </si>
+  <si>
+    <t>T2M0PH06F081MTV</t>
+  </si>
+  <si>
+    <t>JDX038014697479-1-1-</t>
+  </si>
+  <si>
+    <t>Intel-12700KF盒装</t>
+  </si>
+  <si>
+    <t>THFWHAFSSZR4</t>
+  </si>
+  <si>
+    <t>Intel-14700KF盒装</t>
+  </si>
+  <si>
+    <t>SBM0KC228631226</t>
+  </si>
+  <si>
+    <t>SF3157317834991</t>
+  </si>
+  <si>
+    <t>Intel-265K盒装</t>
+  </si>
+  <si>
+    <t>u4gd386800297</t>
+  </si>
+  <si>
+    <t>Intel-265KF盒装</t>
+  </si>
+  <si>
+    <t>SCM0KC277636JTY</t>
+  </si>
+  <si>
+    <t>SF0269957469855</t>
+  </si>
+  <si>
+    <t>Intel-285K盒装</t>
+  </si>
+  <si>
+    <t>MZ3GBQON26F4</t>
+  </si>
+  <si>
+    <t>Intel-14900KF盒装</t>
+  </si>
+  <si>
+    <t>T3M0KC158081LUK</t>
+  </si>
+  <si>
+    <t>SF0269959049221</t>
+  </si>
+  <si>
+    <t>Intel-14900K盒装</t>
+  </si>
+  <si>
+    <t>8HDC0DVQ7400</t>
+  </si>
+  <si>
+    <t>Intel-12490F 散片</t>
+  </si>
+  <si>
+    <t>T3M0KC15808477D</t>
+  </si>
+  <si>
+    <t>SF3166386406753</t>
+  </si>
+  <si>
+    <t>Intel-12600KF 散片</t>
+  </si>
+  <si>
+    <t>E1SPXUHBP8N4</t>
+  </si>
+  <si>
+    <t>Intel-14600KF 散片</t>
+  </si>
+  <si>
+    <t>T3M0PH054794VKD</t>
+  </si>
+  <si>
+    <t>SF0269864032834</t>
+  </si>
+  <si>
+    <t>Intel-14600K 散片</t>
+  </si>
+  <si>
+    <t>MMXGBX6D5FCW</t>
+  </si>
+  <si>
+    <t>Intel-14700KF 散片</t>
+  </si>
+  <si>
+    <t>T1M0KK00X085YHP</t>
+  </si>
+  <si>
+    <t>SF3169386606748</t>
+  </si>
+  <si>
+    <t>Intel-12490F盒装 涂码</t>
+  </si>
+  <si>
+    <t>6ZNFYQLBZ69S</t>
+  </si>
+  <si>
+    <t>Intel-13400F盒装 涂码</t>
+  </si>
+  <si>
+    <t>SBM0KC228424XY7</t>
+  </si>
+  <si>
+    <t>SF0269957917518</t>
+  </si>
+  <si>
+    <t>Intel-13490F盒装 涂码</t>
+  </si>
+  <si>
+    <t>UQYDH75B7FNK</t>
+  </si>
+  <si>
+    <t>Intel-14490F盒装 涂码</t>
+  </si>
+  <si>
+    <t>UAAHQNUTAZ9C</t>
+  </si>
+  <si>
+    <t>Intel-14400F盒装 涂码</t>
+  </si>
+  <si>
+    <t>6AYPOOW6ZQ4G</t>
+  </si>
+  <si>
+    <t>770014616463300</t>
+  </si>
+  <si>
+    <t>Intel-12600KF盒装 涂码</t>
+  </si>
+  <si>
+    <t>S9M0KK025722PVC</t>
+  </si>
+  <si>
+    <t>Intel-14600KF盒装 涂码</t>
+  </si>
+  <si>
+    <t>S9M0KK025767ES2</t>
+  </si>
+  <si>
+    <t>Intel-14600K盒装 涂码</t>
+  </si>
+  <si>
+    <t>S9M0KK02574424D</t>
+  </si>
+  <si>
+    <t>JD0183525915982-1-1-</t>
+  </si>
+  <si>
+    <t>Intel-12700KF盒装 涂码</t>
+  </si>
+  <si>
+    <t>CIE7CY1YBVNK</t>
+  </si>
+  <si>
+    <t>Intel-14700KF盒装 涂码</t>
+  </si>
+  <si>
+    <t>BVTF0HUKA51C</t>
+  </si>
+  <si>
+    <t>611593158118524</t>
+  </si>
+  <si>
+    <t>Intel-265K盒装 涂码</t>
+  </si>
+  <si>
+    <t>S7HDNJ0Y259951</t>
+  </si>
+  <si>
+    <t>致钛 TI600 1T</t>
+  </si>
+  <si>
+    <t>S7HDNJ0Y247489</t>
+  </si>
+  <si>
+    <t>致钛 TI600 2T</t>
+  </si>
+  <si>
+    <t>S6Z1NU0XC58016</t>
+  </si>
+  <si>
+    <t>JDAZ18971200881-1-1-</t>
+  </si>
+  <si>
+    <t>致钛 TI600 4T</t>
+  </si>
+  <si>
+    <t>S7HDNJ0Y221518</t>
+  </si>
+  <si>
+    <t>JDAZ18971212222</t>
+  </si>
+  <si>
+    <t>致钛TIPLUS 7100 1T</t>
+  </si>
+  <si>
+    <t>S7HDNJ0Y221499</t>
+  </si>
+  <si>
+    <t>770240656223861</t>
+  </si>
+  <si>
+    <t>致钛TIPLUS 7100 2T</t>
+  </si>
+  <si>
+    <t>S7HDNJ0Y207771</t>
+  </si>
+  <si>
+    <t>韩豪</t>
+  </si>
+  <si>
+    <t>致钛TIPLUS 7100 4T</t>
+  </si>
+  <si>
+    <t>AV07CL1RNN5S</t>
+  </si>
+  <si>
+    <t>三星 990 PRO 1T</t>
+  </si>
+  <si>
+    <t>SCM0KC26738265V</t>
+  </si>
+  <si>
+    <t>三星 990 PRO 2T</t>
+  </si>
+  <si>
+    <t>PSBH55060405905</t>
+  </si>
+  <si>
+    <t>三星 990 PRO 4T</t>
+  </si>
+  <si>
+    <t>PSBH55040207903</t>
+  </si>
+  <si>
+    <t>990 EVO PLUS 1T</t>
+  </si>
+  <si>
+    <t>PSBH55040207874</t>
+  </si>
+  <si>
+    <t>三星 990 EVO PLUS 1T</t>
+  </si>
+  <si>
+    <t>PSBH55060502530</t>
+  </si>
+  <si>
+    <t>三星 990 EVO PLUS 2T</t>
+  </si>
+  <si>
+    <t>kcyu56016h08n51010048</t>
+  </si>
+  <si>
+    <t>990 EVO PLUS 2T</t>
+  </si>
+  <si>
+    <t>kcyu56016h08n51010322</t>
+  </si>
+  <si>
+    <t>990 EVO PLUS 4T</t>
+  </si>
+  <si>
+    <t>kcyu56016h08n51010044</t>
+  </si>
+  <si>
+    <t>三星 990 EVO PLUS 4T</t>
+  </si>
+  <si>
+    <t>kcyu56016h08h50110232</t>
+  </si>
+  <si>
+    <t>宏碁 GM7000 1T</t>
+  </si>
+  <si>
+    <t>kcyu56016h08n51020112</t>
+  </si>
+  <si>
+    <t>宏碁 GM7000 2T</t>
+  </si>
+  <si>
+    <t>kcyu56016h08n51020110</t>
+  </si>
+  <si>
+    <t>宏碁 GM7 1T</t>
+  </si>
+  <si>
+    <t>kcyu56016h08h50123804</t>
+  </si>
+  <si>
+    <t>宏碁 GM7 2T</t>
+  </si>
+  <si>
+    <t>kcyu56016h08h50123978</t>
+  </si>
+  <si>
+    <t>西数SN7100 1TB</t>
+  </si>
+  <si>
+    <t>kcyu56016h08h50123920</t>
+  </si>
+  <si>
+    <t>科摩思6000 C28 16X2 黑</t>
+  </si>
+  <si>
+    <t>kcyu56016h08h50123810</t>
+  </si>
+  <si>
+    <t>kcyu56016h08h50123988</t>
+  </si>
+  <si>
+    <t>kcyu56016h08h50123922</t>
+  </si>
+  <si>
+    <t>kcyu56016h08h50123852</t>
+  </si>
+  <si>
+    <t>科摩思6000 C28 16X21黑</t>
+  </si>
+  <si>
+    <t>kcyu56016h08n51020286</t>
+  </si>
+  <si>
+    <t>SF3163386706713</t>
+  </si>
+  <si>
     <t>14600KF 盒</t>
   </si>
   <si>
-    <t>UTBXH1ODB7K0</t>
-  </si>
-  <si>
-    <t>已入系统</t>
+    <t>81EAR6NTTJB4</t>
+  </si>
+  <si>
+    <t>TUF B760M-PLUS WIFI II</t>
+  </si>
+  <si>
+    <t>T3M0PH0547969J2</t>
+  </si>
+  <si>
+    <t>76484985331407</t>
+  </si>
+  <si>
+    <t>GM7 2T</t>
+  </si>
+  <si>
+    <t>PSBH55080301425</t>
+  </si>
+  <si>
+    <t>JDX038052005901-1-1-</t>
+  </si>
+  <si>
+    <t>PSBH55080304135</t>
+  </si>
+  <si>
+    <t>PSBH55080300129</t>
+  </si>
+  <si>
+    <t>PSBH55060408452</t>
+  </si>
+  <si>
+    <t>PSBH55080302572</t>
+  </si>
+  <si>
+    <t>PSBH55060409714</t>
+  </si>
+  <si>
+    <t>PSBH55080300148</t>
+  </si>
+  <si>
+    <t>PSBH55060500780</t>
+  </si>
+  <si>
+    <t>PSBH55060500810</t>
+  </si>
+  <si>
+    <t>PSBH55080304326</t>
+  </si>
+  <si>
+    <t>JDX038165943388-3-3-</t>
+  </si>
+  <si>
+    <t>12600KF 盒涂码</t>
+  </si>
+  <si>
+    <t>u4n36u2303180</t>
+  </si>
+  <si>
+    <t>TX D4</t>
+  </si>
+  <si>
+    <t>SCM0KC277547ECH</t>
+  </si>
+  <si>
+    <t>JDX038180486507-1-3-</t>
+  </si>
+  <si>
+    <t>12600KF 盒</t>
+  </si>
+  <si>
+    <t>1KFOG6O1KP4B</t>
+  </si>
+  <si>
+    <t>SCM0KC277492S2C</t>
+  </si>
+  <si>
+    <t>JDX038054587961-1-1-</t>
+  </si>
+  <si>
+    <t>265K 盒</t>
+  </si>
+  <si>
+    <t>TGDZA9DDW0ZK</t>
+  </si>
+  <si>
+    <t>Q1DHQ5KKAGW0</t>
+  </si>
+  <si>
+    <t>JDX038165943388-2-3-</t>
+  </si>
+  <si>
+    <t>29MGSXY5VL6O</t>
+  </si>
+  <si>
+    <t>SCM0KC277549G65</t>
+  </si>
+  <si>
+    <t>JDX038165943388-1-3-</t>
+  </si>
+  <si>
+    <t>YEYDJZ1KH0QO</t>
+  </si>
+  <si>
+    <t>T3M0PH0547519SN</t>
+  </si>
+  <si>
+    <t>SF3167716906699</t>
+  </si>
+  <si>
+    <t>14600K 盒</t>
+  </si>
+  <si>
+    <t>7B8JZY19LKSG</t>
+  </si>
+  <si>
+    <t>T2M0PH06F10029D</t>
+  </si>
+  <si>
+    <t>SF3150009914447</t>
+  </si>
+  <si>
+    <t>9QX3K9FBWPVK</t>
+  </si>
+  <si>
+    <t>T2M0PH06F101DTC</t>
+  </si>
+  <si>
+    <t>SF3157311234948</t>
+  </si>
+  <si>
+    <t>LCHQFPM08BUO</t>
+  </si>
+  <si>
+    <t>SCM0KC2774858EW</t>
+  </si>
+  <si>
+    <t>JDVC29610225561-1-1-</t>
+  </si>
+  <si>
+    <t>FY5DJ6KX9O8W</t>
+  </si>
+  <si>
+    <t>TUF Z890-PLUS WIFI</t>
+  </si>
+  <si>
+    <t>S9M0KK03B918WTD</t>
+  </si>
+  <si>
+    <t>JDX038187439895-4-6-</t>
+  </si>
+  <si>
+    <t>8LOA03NUMMIO</t>
+  </si>
+  <si>
+    <t>T2M0KC174268M43</t>
+  </si>
+  <si>
+    <t>JDX038187439895-2-6-</t>
+  </si>
+  <si>
+    <t>D2BT3MCVO2RK</t>
+  </si>
+  <si>
+    <t>T2M0KC174260Z8N</t>
+  </si>
+  <si>
+    <t>JDX038187439895-5-2-</t>
+  </si>
+  <si>
+    <t>MQGB8SIVOJ5S</t>
+  </si>
+  <si>
+    <t>T2M0KC174261W5K</t>
+  </si>
+  <si>
+    <t>JDX038187439895-6-6-</t>
+  </si>
+  <si>
+    <t>ACPORQYPRNK0</t>
+  </si>
+  <si>
+    <t>T2M0KC173734SCV</t>
+  </si>
+  <si>
+    <t>JDX038187439895-1-6-</t>
+  </si>
+  <si>
+    <t>E4BGS78IKDFK</t>
+  </si>
+  <si>
+    <t>T2M0KC173980CU8</t>
+  </si>
+  <si>
+    <t>JDX038187439895-3-6-</t>
+  </si>
+  <si>
+    <t>JLC53SILSOHS</t>
+  </si>
+  <si>
+    <t>T2M0KC173981A82</t>
+  </si>
+  <si>
+    <t>JDVC29610271399-1-1-</t>
+  </si>
+  <si>
+    <t>D61L8J0SSD1C</t>
+  </si>
+  <si>
+    <t>S9M0KK03B920PDF</t>
+  </si>
+  <si>
+    <t>JDX038054856442-1-2-</t>
+  </si>
+  <si>
+    <t>5U9IJPQF5KE8</t>
+  </si>
+  <si>
+    <t>T2M0PH06F0964BD</t>
+  </si>
+  <si>
+    <t>JDX038054856442-2-2-</t>
+  </si>
+  <si>
+    <t>P5G59IJKQVI8</t>
+  </si>
+  <si>
+    <t>T2M0KC168178CX7</t>
+  </si>
+  <si>
+    <t>JDVC29610245524-1-1-</t>
+  </si>
+  <si>
+    <t>GYZSX4ABP728</t>
+  </si>
+  <si>
+    <t>S9M0KK03B927KK6</t>
+  </si>
+  <si>
+    <t>JDX038056667269-1-1-</t>
+  </si>
+  <si>
+    <t>WGMJSKD5U874</t>
+  </si>
+  <si>
+    <t>ALRMMGU3TQF4</t>
   </si>
   <si>
     <t>TUF B760M-PLUS WIFI D4</t>
   </si>
   <si>
-    <t>SBM0KC2288893DK</t>
-  </si>
-  <si>
-    <t>JDX038014721385-1-1-</t>
-  </si>
-  <si>
-    <t>3W4R6URLETKW</t>
-  </si>
-  <si>
-    <t>TUF B760M-PLUS WIFI II</t>
-  </si>
-  <si>
-    <t>T2M0KC168177X99</t>
-  </si>
-  <si>
-    <t>JDX038014661014-1-1-</t>
-  </si>
-  <si>
-    <t>45C8ZX46X08W</t>
-  </si>
-  <si>
-    <t>T2M0KC1681748XG</t>
-  </si>
-  <si>
-    <t>JDX038014655441-1-1-</t>
-  </si>
-  <si>
-    <t>LSS7P3VWIG3K</t>
-  </si>
-  <si>
-    <t>T2M0PH06F081MTV</t>
-  </si>
-  <si>
-    <t>JDX038014697479-1-1-</t>
-  </si>
-  <si>
-    <t>THFWHAFSSZR4</t>
-  </si>
-  <si>
-    <t>SBM0KC228631226</t>
-  </si>
-  <si>
-    <t>SF3157317834991</t>
-  </si>
-  <si>
-    <t>12600KF 盒涂码</t>
-  </si>
-  <si>
-    <t>u4gd386800297</t>
-  </si>
-  <si>
-    <t>TX D4</t>
-  </si>
-  <si>
-    <t>SCM0KC277636JTY</t>
-  </si>
-  <si>
-    <t>SF0269957469854</t>
-  </si>
-  <si>
-    <t>12600KF 盒</t>
-  </si>
-  <si>
-    <t>MZ3GBQON26F4</t>
-  </si>
-  <si>
-    <t>T3M0KC158081LUK</t>
-  </si>
-  <si>
-    <t>SF0269959049219</t>
-  </si>
-  <si>
-    <t>8HDC0DVQ7400</t>
-  </si>
-  <si>
-    <t>T3M0KC15808477D</t>
-  </si>
-  <si>
-    <t>SF3166386406753</t>
-  </si>
-  <si>
-    <t>E1SPXUHBP8N4</t>
-  </si>
-  <si>
-    <t>T3M0PH054794VKD</t>
-  </si>
-  <si>
-    <t>SF0269864032834</t>
-  </si>
-  <si>
-    <t>MMXGBX6D5FCW</t>
-  </si>
-  <si>
-    <t>B760-G 吹雪 S</t>
-  </si>
-  <si>
-    <t>T1M0KK00X085YHP</t>
-  </si>
-  <si>
-    <t>SF3169386606748</t>
-  </si>
-  <si>
-    <t>6ZNFYQLBZ69S</t>
-  </si>
-  <si>
-    <t>SBM0KC228424XY7</t>
-  </si>
-  <si>
-    <t>SF0269957917518</t>
-  </si>
-  <si>
-    <t>265K 盒</t>
-  </si>
-  <si>
-    <t>UQYDH75B7FNK</t>
-  </si>
-  <si>
-    <t>UAAHQNUTAZ9C</t>
-  </si>
-  <si>
-    <t>6AYPOOW6ZQ4G</t>
-  </si>
-  <si>
-    <t>TUF Z890-PLUS WIFI</t>
-  </si>
-  <si>
-    <t>S9M0KK025722PVC</t>
-  </si>
-  <si>
-    <t>S9M0KK025767ES2</t>
-  </si>
-  <si>
-    <t>S9M0KK02574424D</t>
-  </si>
-  <si>
-    <t>JD0183525915982-1-1-</t>
-  </si>
-  <si>
-    <t>CIE7CY1YBVNK</t>
-  </si>
-  <si>
-    <t>BVTF0HUKA51C</t>
-  </si>
-  <si>
-    <t>990 PRO 1T</t>
-  </si>
-  <si>
-    <t>S7HDNJ0Y259951</t>
-  </si>
-  <si>
-    <t>S7HDNJ0Y247489</t>
-  </si>
-  <si>
-    <t>S6Z1NU0XC58016</t>
-  </si>
-  <si>
-    <t>JDAZ18971200881-1-1-</t>
-  </si>
-  <si>
-    <t>S7HDNJ0Y221518</t>
-  </si>
-  <si>
-    <t>JDAZ18971212223</t>
-  </si>
-  <si>
-    <t>S7HDNJ0Y221499</t>
-  </si>
-  <si>
-    <t>S7HDNJ0Y207775</t>
-  </si>
-  <si>
-    <t>韩豪</t>
-  </si>
-  <si>
-    <t>AV07CL1RNN5S</t>
-  </si>
-  <si>
-    <t>TX D5</t>
-  </si>
-  <si>
-    <t>SCM0KC26738265V</t>
-  </si>
-  <si>
-    <t>GM7 2T</t>
-  </si>
-  <si>
-    <t>PSBH55060405905</t>
-  </si>
-  <si>
-    <t>PSBH55040207903</t>
-  </si>
-  <si>
-    <t>PSBH55040207874</t>
-  </si>
-  <si>
-    <t>PSBH55060502530</t>
-  </si>
-  <si>
-    <t>科摩思6000 C28 16X2 白</t>
-  </si>
-  <si>
-    <t>kcyu56016h08n51010048</t>
-  </si>
-  <si>
-    <t>kcyu56016h08n51010322</t>
-  </si>
-  <si>
-    <t>kcyu56016h08n51010044</t>
-  </si>
-  <si>
-    <t>kcyu56016h08h50110232</t>
-  </si>
-  <si>
-    <t>科摩思6000 C28 16X2 黑</t>
-  </si>
-  <si>
-    <t>kcyu56016h08n51020112</t>
-  </si>
-  <si>
-    <t>kcyu56016h08n51020110</t>
-  </si>
-  <si>
-    <t>kcyu56016h08h50123804</t>
-  </si>
-  <si>
-    <t>kcyu56016h08h50123978</t>
-  </si>
-  <si>
-    <t>kcyu56016h08h50123920</t>
-  </si>
-  <si>
-    <t>kcyu56016h08h50123810</t>
-  </si>
-  <si>
-    <t>kcyu56016h08h50123988</t>
-  </si>
-  <si>
-    <t>kcyu56016h08h50123922</t>
-  </si>
-  <si>
-    <t>kcyu56016h08h50123852</t>
-  </si>
-  <si>
-    <t>kcyu56016h08n51020286</t>
-  </si>
-  <si>
-    <t>SF3163386706713</t>
-  </si>
-  <si>
-    <t>81EAR6NTTJB4</t>
-  </si>
-  <si>
-    <t>T3M0PH0547969J2</t>
-  </si>
-  <si>
-    <t>76484985331407</t>
-  </si>
-  <si>
-    <t>PSBH55080301425</t>
-  </si>
-  <si>
-    <t>JDX038052005901-1-1-</t>
-  </si>
-  <si>
-    <t>PSBH55080304135</t>
-  </si>
-  <si>
-    <t>PSBH55080300129</t>
-  </si>
-  <si>
-    <t>PSBH55060408452</t>
-  </si>
-  <si>
-    <t>PSBH55080302572</t>
-  </si>
-  <si>
-    <t>PSBH55060409714</t>
-  </si>
-  <si>
-    <t>PSBH55080300148</t>
-  </si>
-  <si>
-    <t>PSBH55060500780</t>
-  </si>
-  <si>
-    <t>PSBH55060500810</t>
-  </si>
-  <si>
-    <t>PSBH55080304326</t>
-  </si>
-  <si>
-    <t>JDX038165943388-3-3-</t>
-  </si>
-  <si>
-    <t>u4n36u2303180</t>
-  </si>
-  <si>
-    <t>SCM0KC277547ECH</t>
-  </si>
-  <si>
-    <t>JDX038180486507-1-1-</t>
-  </si>
-  <si>
-    <t>1KFOG6O1KP4W</t>
-  </si>
-  <si>
-    <t>SCM0KC277492S2C</t>
-  </si>
-  <si>
-    <t>JDX038054587961-1-1-</t>
-  </si>
-  <si>
-    <t>TGDZA9DDW0ZK</t>
-  </si>
-  <si>
-    <t>Q1DHQ5KKAGW0</t>
-  </si>
-  <si>
-    <t>JDX038165943388-2-3-</t>
-  </si>
-  <si>
-    <t>29MGSXY5VL6O</t>
-  </si>
-  <si>
-    <t>SCM0KC277549G65</t>
-  </si>
-  <si>
-    <t>JDX038165943388-1-3-</t>
-  </si>
-  <si>
-    <t>YEYDJZ1KH0QO</t>
-  </si>
-  <si>
-    <t>T3M0PH0547519SN</t>
-  </si>
-  <si>
-    <t>SF3167716906699</t>
-  </si>
-  <si>
-    <t>14600K 盒</t>
-  </si>
-  <si>
-    <t>7B8JZY19LKSG</t>
-  </si>
-  <si>
-    <t>T2M0PH06F10029D</t>
-  </si>
-  <si>
-    <t>SF3150009914447</t>
-  </si>
-  <si>
-    <t>9QX3K9FBWPVK</t>
-  </si>
-  <si>
-    <t>T2M0PH06F101DTC</t>
-  </si>
-  <si>
-    <t>SF3157311234948</t>
-  </si>
-  <si>
-    <t>LCHQFPM08BUO</t>
-  </si>
-  <si>
-    <t>SCM0KC2774858EW</t>
-  </si>
-  <si>
-    <t>JDVC29610225561-1-1-</t>
-  </si>
-  <si>
-    <t>FY5DJ6KX9O8W</t>
-  </si>
-  <si>
-    <t>S9M0KK03B918WTD</t>
-  </si>
-  <si>
-    <t>JDX038187439895-4-6-</t>
-  </si>
-  <si>
-    <t>8LOA03NUMMIO</t>
-  </si>
-  <si>
-    <t>T2M0KC174268M43</t>
-  </si>
-  <si>
-    <t>JDX038187439895-2-6-</t>
-  </si>
-  <si>
-    <t>D2BT3MCVO2RK</t>
-  </si>
-  <si>
-    <t>T2M0KC174260Z8N</t>
-  </si>
-  <si>
-    <t>JDX038187439895-5-6-</t>
-  </si>
-  <si>
-    <t>MQGB8SIVOJ5S</t>
-  </si>
-  <si>
-    <t>T2M0KC174261W5K</t>
-  </si>
-  <si>
-    <t>JDX038187439895-6-6-</t>
-  </si>
-  <si>
-    <t>ACPORQYPRNK0</t>
-  </si>
-  <si>
-    <t>T2M0KC173734SCV</t>
-  </si>
-  <si>
-    <t>JDX038187439895-1-6-</t>
-  </si>
-  <si>
-    <t>E4BGS78IKDFK</t>
-  </si>
-  <si>
-    <t>T2M0KC173980CU8</t>
-  </si>
-  <si>
-    <t>JDX038187439895-3-6-</t>
-  </si>
-  <si>
-    <t>JLC53SILSOHS</t>
-  </si>
-  <si>
-    <t>T2M0KC173981A82</t>
-  </si>
-  <si>
-    <t>JDVC29610271399-1-1-</t>
-  </si>
-  <si>
-    <t>D61L8J0SSD1C</t>
-  </si>
-  <si>
-    <t>S9M0KK03B920PDF</t>
-  </si>
-  <si>
-    <t>JDX038054856442-1-2-</t>
-  </si>
-  <si>
-    <t>5U9IJPQF5KE8</t>
-  </si>
-  <si>
-    <t>T2M0PH06F0964BD</t>
-  </si>
-  <si>
-    <t>JDX038054856442-2-2-</t>
-  </si>
-  <si>
-    <t>P5G59IJKQVI8</t>
-  </si>
-  <si>
-    <t>T2M0KC168178CX7</t>
-  </si>
-  <si>
-    <t>JDVC29610245524-1-1-</t>
-  </si>
-  <si>
-    <t>GYZSX4ABP728</t>
-  </si>
-  <si>
-    <t>S9M0KK03B927KK6</t>
-  </si>
-  <si>
-    <t>JDX038056667269-1-1-</t>
-  </si>
-  <si>
-    <t>WGMJSKD5U874</t>
-  </si>
-  <si>
-    <t>ALRMMGU3TQF4</t>
-  </si>
-  <si>
     <t>SBM0KC2288292HX</t>
   </si>
   <si>
@@ -848,7 +1002,7 @@
     <t>T2M0KC128642VY5</t>
   </si>
   <si>
-    <t>SF2009831176010</t>
+    <t>SF2009831176011</t>
   </si>
   <si>
     <t>u4k34b4201624</t>
@@ -938,10 +1092,25 @@
     <t>T3M0PH054757YLW</t>
   </si>
   <si>
-    <t>SF0269976154631</t>
-  </si>
-  <si>
-    <t>Y9P28BCR0F7K</t>
+    <t>SF0269976154613</t>
+  </si>
+  <si>
+    <t>2 4600KF 盒</t>
+  </si>
+  <si>
+    <t>Y9P28BCR0F8K</t>
+  </si>
+  <si>
+    <t>SF0269976154634</t>
+  </si>
+  <si>
+    <t>Y9P28BCR0F72K</t>
+  </si>
+  <si>
+    <t>SF0269976154615</t>
+  </si>
+  <si>
+    <t>AMD-9700X 散片</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1124,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,6 +1133,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -1114,7 +1290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,16 +1641,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1477,37 +1656,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1522,74 +1701,77 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1600,10 +1782,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1663,19 +1854,19 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFD73434"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFEC8CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFC00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1954,10 +2145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1998,8 +2189,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <f ca="1" t="shared" ref="A3:A66" si="0">IF(B3="","",IF(A3="",NOW(),A3))</f>
-        <v>45750.4385648148</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -2017,7 +2207,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="str">
-        <f ca="1" t="shared" si="0"/>
+        <f ca="1" t="shared" ref="A3:A66" si="0">IF(B4="","",IF(A4="",NOW(),A4))</f>
         <v/>
       </c>
       <c r="B4" s="3"/>
@@ -2034,17 +2224,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4472800926</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
@@ -2058,10 +2247,10 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -2070,17 +2259,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4477893518</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -2094,10 +2282,10 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -2106,17 +2294,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4482407407</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
@@ -2130,10 +2317,10 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -2142,17 +2329,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4488657407</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -2166,10 +2352,10 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -2178,17 +2364,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4500925926</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
@@ -2202,10 +2387,10 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
@@ -2214,17 +2399,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4507407407</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
@@ -2238,10 +2422,10 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
@@ -2250,17 +2434,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4515972222</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -2274,10 +2457,10 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
@@ -2286,17 +2469,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4522453704</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
@@ -2310,10 +2492,10 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2322,17 +2504,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4528009259</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2346,10 +2527,10 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -2358,17 +2539,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4533333333</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -2382,10 +2562,10 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -2394,17 +2574,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4538657407</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
@@ -2418,10 +2597,10 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -2435,10 +2614,10 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -2446,16 +2625,17 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2" t="str">
-        <f ca="1" t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B28" s="3"/>
+      <c r="A28" s="2">
+        <v>45985.4333333333</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -2469,10 +2649,10 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -2486,10 +2666,10 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
@@ -2498,17 +2678,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.4761458333</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
@@ -2522,10 +2701,10 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
@@ -2534,17 +2713,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.5323842593</v>
-      </c>
-      <c r="B33" s="4">
-        <v>611593158118525</v>
+        <v>45985.4333333333</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
@@ -2558,10 +2736,10 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
@@ -2575,10 +2753,10 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
@@ -2587,17 +2765,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.5330324074</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
@@ -2606,17 +2783,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.533287037</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
@@ -2625,17 +2801,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.5346875</v>
-      </c>
-      <c r="B38" s="4">
-        <v>770240656223864</v>
+        <v>45985.4333333333</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
@@ -2643,18 +2818,17 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5">
-        <f ca="1" t="shared" si="0"/>
-        <v>45750.5625694444</v>
+      <c r="A39" s="2">
+        <v>45984.4333333333</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
@@ -2662,16 +2836,16 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5" t="str">
+      <c r="A40" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -2679,16 +2853,16 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5" t="str">
+      <c r="A41" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2696,16 +2870,16 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5" t="str">
+      <c r="A42" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2713,16 +2887,16 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5" t="str">
+      <c r="A43" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2730,16 +2904,16 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5" t="str">
+      <c r="A44" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
@@ -2747,16 +2921,16 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="5" t="str">
+      <c r="A45" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
@@ -2764,16 +2938,16 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="5" t="str">
+      <c r="A46" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
@@ -2781,16 +2955,16 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="5" t="str">
+      <c r="A47" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
@@ -2798,16 +2972,16 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="5" t="str">
+      <c r="A48" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
@@ -2815,16 +2989,16 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="5" t="str">
+      <c r="A49" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
@@ -2832,16 +3006,16 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="5" t="str">
+      <c r="A50" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
@@ -2849,16 +3023,16 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="5" t="str">
+      <c r="A51" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
@@ -2866,16 +3040,16 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="5" t="str">
+      <c r="A52" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
@@ -2883,16 +3057,16 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="5" t="str">
+      <c r="A53" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
@@ -2900,16 +3074,16 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="5" t="str">
+      <c r="A54" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
@@ -2917,16 +3091,16 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="5" t="str">
+      <c r="A55" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
@@ -2934,16 +3108,16 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="5" t="str">
+      <c r="A56" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
@@ -2951,16 +3125,16 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="5" t="str">
+      <c r="A57" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
@@ -2968,16 +3142,16 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="5" t="str">
+      <c r="A58" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
         <v/>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
@@ -2990,13 +3164,13 @@
         <v>45750.5978125</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
@@ -3010,10 +3184,10 @@
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
@@ -3025,14 +3199,14 @@
         <f ca="1" t="shared" si="0"/>
         <v>45750.7046180556</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>95</v>
+      <c r="B61" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
@@ -3045,13 +3219,13 @@
         <v>45750.7127083333</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3065,10 +3239,10 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3082,10 +3256,10 @@
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -3099,10 +3273,10 @@
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
@@ -3116,10 +3290,10 @@
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
@@ -3133,10 +3307,10 @@
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
@@ -3150,10 +3324,10 @@
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
@@ -3167,10 +3341,10 @@
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
@@ -3184,10 +3358,10 @@
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
@@ -3200,13 +3374,13 @@
         <v>45750.7146064815</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
@@ -3220,10 +3394,10 @@
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
@@ -3236,13 +3410,13 @@
         <v>45750.7154861111</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
@@ -3256,10 +3430,10 @@
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
@@ -3272,13 +3446,13 @@
         <v>45750.7166666667</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
@@ -3292,10 +3466,10 @@
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
@@ -3308,13 +3482,13 @@
         <v>45750.7175694444</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
@@ -3328,10 +3502,10 @@
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
@@ -3344,13 +3518,13 @@
         <v>45750.7179861111</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
@@ -3364,10 +3538,10 @@
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
@@ -3380,13 +3554,13 @@
         <v>45751.4259490741</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
@@ -3400,10 +3574,10 @@
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
@@ -3416,13 +3590,13 @@
         <v>45751.4266666667</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3436,10 +3610,10 @@
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3452,13 +3626,13 @@
         <v>45751.427349537</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
@@ -3472,10 +3646,10 @@
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
@@ -3488,13 +3662,13 @@
         <v>45751.4522916667</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
@@ -3508,10 +3682,10 @@
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3" t="s">
@@ -3524,13 +3698,13 @@
         <v>45751.4528472222</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3" t="s">
@@ -3544,10 +3718,10 @@
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
@@ -3560,13 +3734,13 @@
         <v>45751.4533449074</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
@@ -3580,10 +3754,10 @@
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3" t="s">
@@ -3596,13 +3770,13 @@
         <v>45751.4537268519</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
@@ -3616,10 +3790,10 @@
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3" t="s">
@@ -3632,13 +3806,13 @@
         <v>45751.4541550926</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
@@ -3652,10 +3826,10 @@
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3" t="s">
@@ -3668,13 +3842,13 @@
         <v>45751.4545717593</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
@@ -3688,10 +3862,10 @@
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3" t="s">
@@ -3704,13 +3878,13 @@
         <v>45751.4549652778</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3" t="s">
@@ -3724,10 +3898,10 @@
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3" t="s">
@@ -3740,13 +3914,13 @@
         <v>45751.4553125</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3" t="s">
@@ -3760,10 +3934,10 @@
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="s">
@@ -3776,13 +3950,13 @@
         <v>45751.4564583333</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
@@ -3796,10 +3970,10 @@
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3" t="s">
@@ -3812,13 +3986,13 @@
         <v>45751.4572106482</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3832,10 +4006,10 @@
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3848,13 +4022,13 @@
         <v>45751.4577546296</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D107" s="3" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="s">
@@ -3868,10 +4042,10 @@
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
@@ -3884,13 +4058,13 @@
         <v>45751.4582175926</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -3904,10 +4078,10 @@
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -3921,10 +4095,10 @@
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
@@ -3938,10 +4112,10 @@
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3" t="s">
@@ -3954,13 +4128,13 @@
         <v>45751.4592592593</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="s">
@@ -3974,10 +4148,10 @@
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3" t="s">
@@ -3990,13 +4164,13 @@
         <v>45751.4597106481</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3" t="s">
@@ -4010,10 +4184,10 @@
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3" t="s">
@@ -4026,13 +4200,13 @@
         <v>45751.4603356481</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3" t="s">
@@ -4046,10 +4220,10 @@
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3" t="s">
@@ -4062,13 +4236,13 @@
         <v>45751.4610185185</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3" t="s">
@@ -4082,10 +4256,10 @@
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3" t="s">
@@ -4098,13 +4272,13 @@
         <v>45751.4616203704</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3" t="s">
@@ -4118,10 +4292,10 @@
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3" t="s">
@@ -4134,13 +4308,13 @@
         <v>45751.4624189815</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3" t="s">
@@ -4154,10 +4328,10 @@
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3" t="s">
@@ -4170,13 +4344,13 @@
         <v>45751.4635648148</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
@@ -4190,10 +4364,10 @@
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4206,13 +4380,13 @@
         <v>45751.4753356481</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4226,10 +4400,10 @@
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
@@ -4243,10 +4417,10 @@
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3" t="s">
@@ -4260,10 +4434,10 @@
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="s">
@@ -4276,13 +4450,13 @@
         <v>45751.4770486111</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
@@ -4296,10 +4470,10 @@
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
@@ -4312,13 +4486,13 @@
         <v>45751.478125</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3" t="s">
@@ -4332,10 +4506,10 @@
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3" t="s">
@@ -4348,13 +4522,13 @@
         <v>45751.5905092593</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3" t="s">
@@ -4368,10 +4542,10 @@
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3" t="s">
@@ -4385,10 +4559,10 @@
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3" t="s">
@@ -4402,10 +4576,10 @@
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3" t="s">
@@ -4419,10 +4593,10 @@
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3" t="s">
@@ -4436,10 +4610,10 @@
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
@@ -4453,10 +4627,10 @@
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3" t="s">
@@ -4470,10 +4644,10 @@
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3" t="s">
@@ -4486,13 +4660,13 @@
         <v>45751.5920023148</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3" t="s">
@@ -4506,10 +4680,10 @@
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3" t="s">
@@ -4522,13 +4696,13 @@
         <v>45751.5925925926</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3" t="s">
@@ -4542,10 +4716,10 @@
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3" t="s">
@@ -4558,13 +4732,13 @@
         <v>45751.5930555556</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4578,10 +4752,10 @@
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4594,13 +4768,13 @@
         <v>45751.6061921296</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
@@ -4614,10 +4788,10 @@
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3" t="s">
@@ -4631,10 +4805,10 @@
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3" t="s">
@@ -4648,10 +4822,10 @@
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3" t="s">
@@ -4665,10 +4839,10 @@
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
@@ -4682,10 +4856,10 @@
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
@@ -4699,10 +4873,10 @@
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3" t="s">
@@ -4716,10 +4890,10 @@
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3" t="s">
@@ -4732,13 +4906,13 @@
         <v>45751.6093402778</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3" t="s">
@@ -4752,10 +4926,10 @@
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3" t="s">
@@ -4768,13 +4942,13 @@
         <v>45751.6097685185</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3" t="s">
@@ -4788,10 +4962,10 @@
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3" t="s">
@@ -4804,13 +4978,13 @@
         <v>45751.6101388889</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3" t="s">
@@ -4824,10 +4998,10 @@
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3" t="s">
@@ -4840,13 +5014,13 @@
         <v>45751.6105324074</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3" t="s">
@@ -4860,10 +5034,10 @@
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3" t="s">
@@ -4876,13 +5050,13 @@
         <v>45751.6110185185</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3" t="s">
@@ -4896,10 +5070,10 @@
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3" t="s">
@@ -4912,13 +5086,13 @@
         <v>45751.7130439815</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3" t="s">
@@ -4932,10 +5106,10 @@
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -4948,13 +5122,13 @@
         <v>45751.71375</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -4968,10 +5142,10 @@
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3" t="s">
@@ -4984,13 +5158,13 @@
         <v>45751.7142824074</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3" t="s">
@@ -5004,10 +5178,10 @@
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3" t="s">
@@ -5020,13 +5194,13 @@
         <v>45751.7147337963</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3" t="s">
@@ -5040,10 +5214,10 @@
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3" t="s">
@@ -5056,13 +5230,13 @@
         <v>45751.7149652778</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
@@ -5076,10 +5250,10 @@
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
@@ -5092,13 +5266,13 @@
         <v>45751.7153472222</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3" t="s">
@@ -5112,10 +5286,10 @@
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3" t="s">
@@ -5128,13 +5302,13 @@
         <v>45751.7156828704</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3" t="s">
@@ -5148,10 +5322,10 @@
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3" t="s">
@@ -5164,13 +5338,13 @@
         <v>45751.7159837963</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3" t="s">
@@ -5184,10 +5358,10 @@
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3" t="s">
@@ -5200,13 +5374,13 @@
         <v>45752.4213773148</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3" t="s">
@@ -5220,10 +5394,10 @@
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3" t="s">
@@ -5236,13 +5410,13 @@
         <v>45752.4226157407</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3" t="s">
@@ -5256,10 +5430,10 @@
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3" t="s">
@@ -5272,13 +5446,13 @@
         <v>45752.4233101852</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3" t="s">
@@ -5292,10 +5466,10 @@
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3" t="s">
@@ -5308,13 +5482,13 @@
         <v>45752.4239814815</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3" t="s">
@@ -5328,10 +5502,10 @@
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3" t="s">
@@ -5344,13 +5518,13 @@
         <v>45752.424525463</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3" t="s">
@@ -5364,10 +5538,10 @@
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3" t="s">
@@ -5380,13 +5554,13 @@
         <v>45752.4253703704</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3" t="s">
@@ -5400,10 +5574,10 @@
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3" t="s">
@@ -5416,13 +5590,13 @@
         <v>45752.4261689815</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3" t="s">
@@ -5436,10 +5610,10 @@
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="3" t="s">
@@ -5452,13 +5626,13 @@
         <v>45752.4267361111</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3" t="s">
@@ -5472,10 +5646,10 @@
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3" t="s">
@@ -5488,13 +5662,13 @@
         <v>45752.4274768519</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3" t="s">
@@ -5508,10 +5682,10 @@
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3" t="s">
@@ -5524,13 +5698,13 @@
         <v>45752.4280671296</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3" t="s">
@@ -5544,10 +5718,10 @@
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3" t="s">
@@ -5560,13 +5734,13 @@
         <v>45752.4286111111</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="3" t="s">
@@ -5580,10 +5754,10 @@
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3" t="s">
@@ -5592,40 +5766,470 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <f ca="1" t="shared" si="3"/>
-        <v>45752.4292824074</v>
+        <v>45985.4333333333</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>6</v>
+        <v>355</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="E205" s="3"/>
       <c r="F205" s="3" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2">
+        <f ca="1" t="shared" ref="A205:A219" si="4">IF(B206="","",IF(A206="",NOW(),A206))</f>
+        <v>45985.1171643519</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2">
+        <f ca="1" t="shared" si="4"/>
+        <v>45985.9599305556</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B205">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$3:$B$205&amp;"x")=(B3&amp;"x")),0))&gt;1,NOT(ISBLANK(B3)))</formula>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="0" priority="90">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$28&amp;"x")=(B28&amp;"x")),0))&gt;1,NOT(ISBLANK(B28)))</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B205">
+    <cfRule type="duplicateValues" dxfId="1" priority="57"/>
+    <cfRule type="expression" dxfId="0" priority="72">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$205&amp;"x")=(B205&amp;"x")),0))&gt;1,NOT(ISBLANK(B205)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B205 E3:E205">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D205:E205">
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+    <cfRule type="expression" dxfId="2" priority="87">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$205:$E$205&amp;"x")=(D205&amp;"x")),0))&gt;1,NOT(ISBLANK(D205)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E205">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B206">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$206&amp;"x")=(B206&amp;"x")),0))&gt;1,NOT(ISBLANK(B206)))</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D206:E206">
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="expression" dxfId="2" priority="73">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$206:$E$206&amp;"x")=(D206&amp;"x")),0))&gt;1,NOT(ISBLANK(D206)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B207">
+    <cfRule type="duplicateValues" dxfId="1" priority="55"/>
+    <cfRule type="expression" dxfId="0" priority="70">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$207&amp;"x")=(B207&amp;"x")),0))&gt;1,NOT(ISBLANK(B207)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D207:E207">
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="expression" dxfId="2" priority="85">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$207:$E$207&amp;"x")=(D207&amp;"x")),0))&gt;1,NOT(ISBLANK(D207)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B208">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$208&amp;"x")=(B208&amp;"x")),0))&gt;1,NOT(ISBLANK(B208)))</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D208">
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$3:$E$205&amp;"x")=(D3&amp;"x")),0))&gt;1,NOT(ISBLANK(D3)))</formula>
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$208&amp;"x")=(D208&amp;"x")),0))&gt;1,NOT(ISBLANK(D208)))</formula>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E208">
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E208">
+    <cfRule type="duplicateValues" dxfId="1" priority="39"/>
+    <cfRule type="expression" dxfId="2" priority="84">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($E$208&amp;"x")=(E208&amp;"x")),0))&gt;1,NOT(ISBLANK(E208)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209">
+    <cfRule type="duplicateValues" dxfId="1" priority="53"/>
+    <cfRule type="expression" dxfId="0" priority="68">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$209&amp;"x")=(B209&amp;"x")),0))&gt;1,NOT(ISBLANK(B209)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D209:E209">
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+    <cfRule type="expression" dxfId="2" priority="83">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$209:$E$209&amp;"x")=(D209&amp;"x")),0))&gt;1,NOT(ISBLANK(D209)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B210">
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$210&amp;"x")=(B210&amp;"x")),0))&gt;1,NOT(ISBLANK(B210)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D210:E210">
+    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
+    <cfRule type="expression" dxfId="2" priority="82">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$210:$E$210&amp;"x")=(D210&amp;"x")),0))&gt;1,NOT(ISBLANK(D210)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B211">
+    <cfRule type="duplicateValues" dxfId="1" priority="51"/>
+    <cfRule type="expression" dxfId="0" priority="66">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$211&amp;"x")=(B211&amp;"x")),0))&gt;1,NOT(ISBLANK(B211)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D211:E211">
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+    <cfRule type="expression" dxfId="2" priority="81">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$211:$E$211&amp;"x")=(D211&amp;"x")),0))&gt;1,NOT(ISBLANK(D211)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212">
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+    <cfRule type="expression" dxfId="0" priority="65">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$212&amp;"x")=(B212&amp;"x")),0))&gt;1,NOT(ISBLANK(B212)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D212:E212">
+    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
+    <cfRule type="expression" dxfId="2" priority="80">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$212:$E$212&amp;"x")=(D212&amp;"x")),0))&gt;1,NOT(ISBLANK(D212)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B213">
+    <cfRule type="duplicateValues" dxfId="1" priority="49"/>
+    <cfRule type="expression" dxfId="0" priority="64">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$213&amp;"x")=(B213&amp;"x")),0))&gt;1,NOT(ISBLANK(B213)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D213:E213">
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+    <cfRule type="expression" dxfId="2" priority="79">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$213:$E$213&amp;"x")=(D213&amp;"x")),0))&gt;1,NOT(ISBLANK(D213)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B214">
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+    <cfRule type="expression" dxfId="0" priority="63">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$214&amp;"x")=(B214&amp;"x")),0))&gt;1,NOT(ISBLANK(B214)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D214:E214">
+    <cfRule type="duplicateValues" dxfId="1" priority="33"/>
+    <cfRule type="expression" dxfId="2" priority="78">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$214:$E$214&amp;"x")=(D214&amp;"x")),0))&gt;1,NOT(ISBLANK(D214)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215">
+    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
+    <cfRule type="expression" dxfId="0" priority="62">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$215&amp;"x")=(B215&amp;"x")),0))&gt;1,NOT(ISBLANK(B215)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D215:E215">
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+    <cfRule type="expression" dxfId="2" priority="77">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$215:$E$215&amp;"x")=(D215&amp;"x")),0))&gt;1,NOT(ISBLANK(D215)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216">
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$216&amp;"x")=(B216&amp;"x")),0))&gt;1,NOT(ISBLANK(B216)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D216:E216">
+    <cfRule type="duplicateValues" dxfId="1" priority="31"/>
+    <cfRule type="expression" dxfId="2" priority="76">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$216:$E$216&amp;"x")=(D216&amp;"x")),0))&gt;1,NOT(ISBLANK(D216)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B217">
+    <cfRule type="duplicateValues" dxfId="1" priority="45"/>
+    <cfRule type="expression" dxfId="0" priority="60">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$217&amp;"x")=(B217&amp;"x")),0))&gt;1,NOT(ISBLANK(B217)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D217:E217">
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$217:$E$217&amp;"x")=(D217&amp;"x")),0))&gt;1,NOT(ISBLANK(D217)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B218">
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+    <cfRule type="expression" dxfId="0" priority="59">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$218&amp;"x")=(B218&amp;"x")),0))&gt;1,NOT(ISBLANK(B218)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218:E218">
+    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
+    <cfRule type="expression" dxfId="2" priority="74">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$218:$E$218&amp;"x")=(D218&amp;"x")),0))&gt;1,NOT(ISBLANK(D218)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219">
+    <cfRule type="duplicateValues" dxfId="1" priority="43"/>
+    <cfRule type="expression" dxfId="0" priority="58">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$219&amp;"x")=(B219&amp;"x")),0))&gt;1,NOT(ISBLANK(B219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C32">
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($C$3:$C$32&amp;"x")=(C3&amp;"x")),0))&gt;1,NOT(ISBLANK(C3)))</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C68">
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($C$33:$C$68&amp;"x")=(C33&amp;"x")),0))&gt;1,NOT(ISBLANK(C33)))</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B27 B29:B204 E3:E204">
+    <cfRule type="duplicateValues" dxfId="1" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B27 B29:B204">
+    <cfRule type="duplicateValues" dxfId="1" priority="93"/>
+    <cfRule type="expression" dxfId="0" priority="94">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($B$3:$B$27&amp;"x")=(B3&amp;"x")),0))+SUMPRODUCT(IFERROR(1*(($B$29:$B$204&amp;"x")=(B3&amp;"x")),0))&gt;1,NOT(ISBLANK(B3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E204">
+    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
+    <cfRule type="expression" dxfId="2" priority="95">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$3:$E$204&amp;"x")=(D3&amp;"x")),0))&gt;1,NOT(ISBLANK(D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B205 E205">
+    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219 E206">
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B207 E207">
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209 E209">
+    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B210 E210">
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B211 E211">
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212 E212">
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B213 E213">
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B214 E214">
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215 E215">
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216 E216">
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B217 E217">
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B218 E218">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/未命名.xlsx
+++ b/未命名.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15080"/>
+    <workbookView windowHeight="15100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="362">
   <si>
     <t>时间</t>
   </si>
@@ -1107,10 +1107,13 @@
     <t>Y9P28BCR0F72K</t>
   </si>
   <si>
-    <t>SF0269976154615</t>
-  </si>
-  <si>
-    <t>AMD-9700X 散片</t>
+    <t>SF0269976154612</t>
+  </si>
+  <si>
+    <t>AMD-9700X 散片2</t>
+  </si>
+  <si>
+    <t>Y9P28BCR0F72K2</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2151,7 @@
   <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -5824,7 +5827,7 @@
         <v>360</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3" t="s">
@@ -6014,8 +6017,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E208">
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E208">
     <cfRule type="duplicateValues" dxfId="1" priority="39"/>
     <cfRule type="expression" dxfId="2" priority="84">
       <formula>AND(SUMPRODUCT(IFERROR(1*(($E$208&amp;"x")=(E208&amp;"x")),0))&gt;1,NOT(ISBLANK(E208)))</formula>
